--- a/CSC Assessment Data.xlsx
+++ b/CSC Assessment Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\Documents\Aurora\ProgramReview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlash\Documents\GitHub\CSCProgramReviewAssesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A945A7B1-268C-481A-AD86-6C2C88511697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="AU Obj" sheetId="17" r:id="rId1"/>
@@ -626,7 +625,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -960,7 +959,7 @@
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1163,6 +1162,18 @@
             </a:rPr>
             <a:t>Curriculum</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
@@ -1368,6 +1379,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
@@ -1391,6 +1414,18 @@
             </a:rPr>
             <a:t>One year of science and mathematics</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
@@ -1416,6 +1451,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
@@ -1480,6 +1527,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
@@ -1732,6 +1791,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
@@ -1757,6 +1828,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
@@ -1782,6 +1865,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
@@ -2942,6 +3037,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -3020,6 +3127,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -3715,6 +3834,17 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -3809,6 +3939,17 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -3903,6 +4044,17 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -3997,6 +4149,17 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -4779,25 +4942,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
       <c r="C5" s="33" t="s">
         <v>191</v>
@@ -4806,14 +4969,14 @@
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
     </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="32"/>
       <c r="C6" s="36"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="2:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
@@ -4826,7 +4989,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>178</v>
       </c>
@@ -4841,7 +5004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
         <v>177</v>
       </c>
@@ -4856,7 +5019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>176</v>
       </c>
@@ -4871,7 +5034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>175</v>
       </c>
@@ -4886,7 +5049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>174</v>
       </c>
@@ -4901,7 +5064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <f>AVERAGE(D8:D12)</f>
         <v>4.8</v>
@@ -4915,7 +5078,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <f>_xlfn.STDEV.S(D8:D12)</f>
         <v>1.0954451150103319</v>
@@ -4929,7 +5092,7 @@
         <v>0.54772255750516674</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="16">
         <f>COUNTIF(D8:D12,"&gt;=3")/COUNT(D8:D12)</f>
         <v>1</v>
@@ -4943,8 +5106,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
       <c r="C19" s="29" t="s">
         <v>187</v>
@@ -4953,14 +5116,14 @@
       <c r="E19" s="28"/>
       <c r="F19" s="27"/>
     </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
@@ -4976,7 +5139,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="20" t="s">
         <v>178</v>
       </c>
@@ -4994,7 +5157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="s">
         <v>177</v>
       </c>
@@ -5012,7 +5175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
         <v>176</v>
       </c>
@@ -5030,7 +5193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
         <v>175</v>
       </c>
@@ -5048,7 +5211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
         <v>174</v>
       </c>
@@ -5066,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
         <f t="shared" ref="D28:G28" si="0">AVERAGE(D22:D26)</f>
         <v>4.4000000000000004</v>
@@ -5084,7 +5247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D29" s="1">
         <f t="shared" ref="D29:G29" si="1">_xlfn.STDEV.S(D22:D26)</f>
         <v>0.54772255750516674</v>
@@ -5102,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D30" s="16">
         <f t="shared" ref="D30:G30" si="2">COUNTIF(D22:D26,"&gt;=3")/COUNT(D22:D26)</f>
         <v>1</v>
@@ -5120,8 +5283,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="29"/>
       <c r="D32" s="28" t="s">
@@ -5130,14 +5293,14 @@
       <c r="E32" s="28"/>
       <c r="F32" s="27"/>
     </row>
-    <row r="33" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19" t="s">
@@ -5156,7 +5319,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
         <v>178</v>
       </c>
@@ -5177,7 +5340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
         <v>177</v>
       </c>
@@ -5198,7 +5361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="20" t="s">
         <v>176</v>
       </c>
@@ -5219,7 +5382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
         <v>175</v>
       </c>
@@ -5240,7 +5403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="20" t="s">
         <v>174</v>
       </c>
@@ -5261,7 +5424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" s="1">
         <f t="shared" ref="D41:H41" si="3">AVERAGE(D35:D39)</f>
         <v>5</v>
@@ -5283,7 +5446,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="1">
         <f t="shared" ref="D42:H42" si="4">_xlfn.STDEV.S(D35:D39)</f>
         <v>0</v>
@@ -5305,7 +5468,7 @@
         <v>0.44721359549995787</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" s="16">
         <f t="shared" ref="D43:H43" si="5">COUNTIF(D35:D39,"&gt;=3")/COUNT(D35:D39)</f>
         <v>1</v>
@@ -5338,29 +5501,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G105"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G12" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>81</v>
       </c>
@@ -5371,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -5382,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -5390,7 +5553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -5401,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -5412,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -5420,7 +5583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -5431,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -5439,7 +5602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -5450,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -5461,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -5469,7 +5632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -5480,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -5488,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -5499,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>96</v>
       </c>
@@ -5510,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>97</v>
       </c>
@@ -5518,7 +5681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>98</v>
       </c>
@@ -5529,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>99</v>
       </c>
@@ -5540,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>100</v>
       </c>
@@ -5548,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>101</v>
       </c>
@@ -5559,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>102</v>
       </c>
@@ -5568,7 +5731,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>104</v>
       </c>
@@ -5577,7 +5740,7 @@
         <v>30.555555555555557</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>103</v>
       </c>
@@ -5586,10 +5749,10 @@
         <v>85.416666666666671</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>81</v>
       </c>
@@ -5597,7 +5760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>83</v>
       </c>
@@ -5605,7 +5768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>84</v>
       </c>
@@ -5613,7 +5776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>85</v>
       </c>
@@ -5621,7 +5784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>86</v>
       </c>
@@ -5629,7 +5792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>87</v>
       </c>
@@ -5637,7 +5800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>88</v>
       </c>
@@ -5645,7 +5808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>89</v>
       </c>
@@ -5653,7 +5816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>90</v>
       </c>
@@ -5661,7 +5824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>91</v>
       </c>
@@ -5669,7 +5832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>92</v>
       </c>
@@ -5677,7 +5840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>93</v>
       </c>
@@ -5685,7 +5848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>94</v>
       </c>
@@ -5693,7 +5856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>95</v>
       </c>
@@ -5701,7 +5864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>96</v>
       </c>
@@ -5709,7 +5872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>97</v>
       </c>
@@ -5717,13 +5880,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>AVERAGE(C42:C57)</f>
         <v>84.6875</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>5/16*100</f>
         <v>31.25</v>
@@ -5732,7 +5895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>71</v>
       </c>
@@ -5741,7 +5904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="3:6" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>71</v>
       </c>
@@ -5752,7 +5915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>72</v>
       </c>
@@ -5763,7 +5926,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:6" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>75</v>
       </c>
@@ -5774,7 +5937,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="40.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:6" ht="40.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>76</v>
       </c>
@@ -5785,10 +5948,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="3:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="5" t="s">
         <v>78</v>
       </c>
@@ -5804,21 +5967,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="91.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="91.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>125</v>
       </c>
@@ -5826,7 +5989,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5837,7 +6000,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -5848,7 +6011,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5865,14 +6028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5880,22 +6043,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="39"/>
@@ -5903,7 +6066,7 @@
       <c r="E1" s="40"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>134</v>
@@ -5921,7 +6084,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>135</v>
       </c>
@@ -5941,7 +6104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>137</v>
       </c>
@@ -5959,7 +6122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
@@ -5979,7 +6142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
@@ -5997,7 +6160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>140</v>
       </c>
@@ -6017,7 +6180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>141</v>
       </c>
@@ -6035,7 +6198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>142</v>
       </c>
@@ -6053,7 +6216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>143</v>
       </c>
@@ -6073,7 +6236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>144</v>
       </c>
@@ -6093,7 +6256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>145</v>
       </c>
@@ -6111,7 +6274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>146</v>
       </c>
@@ -6129,7 +6292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>147</v>
       </c>
@@ -6147,7 +6310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>148</v>
       </c>
@@ -6165,7 +6328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>149</v>
       </c>
@@ -6185,7 +6348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>150</v>
       </c>
@@ -6203,7 +6366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>151</v>
       </c>
@@ -6223,7 +6386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>152</v>
       </c>
@@ -6243,7 +6406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>153</v>
       </c>
@@ -6263,7 +6426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>154</v>
       </c>
@@ -6281,7 +6444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>155</v>
       </c>
@@ -6301,7 +6464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>156</v>
       </c>
@@ -6321,7 +6484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>157</v>
       </c>
@@ -6341,7 +6504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>158</v>
       </c>
@@ -6361,7 +6524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>159</v>
       </c>
@@ -6379,7 +6542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>160</v>
       </c>
@@ -6397,7 +6560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>161</v>
       </c>
@@ -6415,7 +6578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>162</v>
       </c>
@@ -6433,7 +6596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>163</v>
       </c>
@@ -6451,7 +6614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>164</v>
       </c>
@@ -6469,7 +6632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>165</v>
       </c>
@@ -6487,7 +6650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>166</v>
       </c>
@@ -6508,7 +6671,7 @@
         <v>3.7333333333333334</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>167</v>
       </c>
@@ -6529,7 +6692,7 @@
         <v>0.44977644510880394</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>172</v>
       </c>
@@ -6560,14 +6723,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6575,7 +6738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A18:J28"/>
   <sheetViews>
@@ -6583,18 +6746,18 @@
       <selection activeCell="E19" sqref="E19:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="53.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>63</v>
       </c>
@@ -6611,7 +6774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -6634,7 +6797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -6657,7 +6820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -6681,7 +6844,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -6708,7 +6871,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -6735,7 +6898,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>51</v>
       </c>
@@ -6752,7 +6915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>62</v>
       </c>
@@ -6761,7 +6924,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>167</v>
       </c>
@@ -6770,7 +6933,7 @@
         <v>0.92338051687663836</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="16">
         <f>COUNTIF(E20:H24,"&gt;=3")/COUNT(E20:H24)</f>
         <v>0.8125</v>
@@ -6784,22 +6947,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:Q62"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>173</v>
       </c>
@@ -6807,7 +6970,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>66</v>
       </c>
@@ -6821,7 +6984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -6836,7 +6999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E28" s="5">
         <v>12.5</v>
       </c>
@@ -6848,7 +7011,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E29" s="5">
         <v>18.75</v>
       </c>
@@ -6860,7 +7023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E30" s="5">
         <v>25</v>
       </c>
@@ -6872,7 +7035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E31" s="5">
         <v>25</v>
       </c>
@@ -6884,7 +7047,7 @@
         <v>4.625</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E32" s="5">
         <v>12.5</v>
       </c>
@@ -6896,7 +7059,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="5">
         <v>12.5</v>
       </c>
@@ -6908,7 +7071,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="5">
         <v>12.5</v>
       </c>
@@ -6920,7 +7083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="5">
         <v>10</v>
       </c>
@@ -6932,7 +7095,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="5">
         <v>12.5</v>
       </c>
@@ -6944,7 +7107,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="5">
         <v>6.25</v>
       </c>
@@ -6956,7 +7119,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="5">
         <v>15.68</v>
       </c>
@@ -6968,7 +7131,7 @@
         <v>3.2269999999999994</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f>AVERAGE(E27:E38)/25*100</f>
         <v>62.726666666666667</v>
@@ -6982,7 +7145,7 @@
         <v>3.2272499999999997</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41">
         <f>_xlfn.STDEV.S(E27:E38)</f>
         <v>6.3372016097347101</v>
@@ -6992,22 +7155,22 @@
         <v>1.3628785795980776</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="L42" s="8">
         <f>COUNTIF(L27:L38,"&gt;=3")/COUNT(L27:L38)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>130</v>
       </c>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>68</v>
       </c>
@@ -7016,7 +7179,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>71</v>
       </c>
@@ -7027,7 +7190,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>72</v>
       </c>
@@ -7038,7 +7201,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>75</v>
       </c>
@@ -7049,7 +7212,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>76</v>
       </c>
@@ -7060,16 +7223,16 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F59" s="8">
         <f>AVERAGE(F54:F57)</f>
         <v>0.45249999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="C62" s="5" t="s">
         <v>78</v>
       </c>
@@ -7084,29 +7247,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A22:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D32" sqref="D32:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>4</v>
       </c>
@@ -7120,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>131</v>
       </c>
@@ -7137,7 +7300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="58.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="58.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -7158,7 +7321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -7179,7 +7342,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -7200,7 +7363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -7221,7 +7384,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -7242,7 +7405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f>AVERAGE(D32:F32)</f>
         <v>3.4</v>
@@ -7256,7 +7419,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <f>_xlfn.STDEV.S(D26:D30)</f>
         <v>0.65192024052026543</v>
@@ -7266,7 +7429,7 @@
         <v>0.65192024052026543</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="16">
         <f>COUNTIF(D26:D30,"&gt;=3")/COUNT(D26:D30)</f>
         <v>0.8</v>
@@ -7283,16 +7446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B17:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -7300,7 +7463,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
@@ -7309,7 +7472,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>23</v>
       </c>
@@ -7317,7 +7480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>43</v>
       </c>
@@ -7331,7 +7494,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -7346,7 +7509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>45</v>
       </c>
@@ -7360,7 +7523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>46</v>
       </c>
@@ -7375,7 +7538,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>47</v>
       </c>
@@ -7390,7 +7553,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D30">
         <f>AVERAGE(D20:D28)</f>
         <v>86</v>
@@ -7400,7 +7563,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D31">
         <f>_xlfn.STDEV.S(D20:D28)</f>
         <v>9.6176920308356717</v>
@@ -7410,7 +7573,7 @@
         <v>1.1672617529928755</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E32">
         <f>4/5</f>
         <v>0.8</v>
@@ -7424,24 +7587,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B20:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="40.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -7450,7 +7613,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>132</v>
       </c>
@@ -7472,7 +7635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -7497,7 +7660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -7522,7 +7685,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>7</v>
       </c>
@@ -7547,7 +7710,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -7572,7 +7735,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
@@ -7597,13 +7760,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -7622,7 +7785,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29">
         <f>_xlfn.STDEV.S(E22:E26)</f>
         <v>0.5</v>
@@ -7632,7 +7795,7 @@
         <v>0.65192024052026543</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30" s="16">
         <f>COUNTIF(E22:E26,"&gt;=3")/COUNT(E22:E26)</f>
         <v>1</v>
@@ -7649,14 +7812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7664,22 +7827,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>133</v>
       </c>
@@ -7696,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -7717,7 +7880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -7738,7 +7901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -7759,7 +7922,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -7780,7 +7943,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -7801,13 +7964,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -7826,7 +7989,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E27">
         <f>_xlfn.STDEV.S(E20:E24)</f>
         <v>0.54772255750516674</v>
@@ -7836,7 +7999,7 @@
         <v>0.27386127875258309</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E28" s="16">
         <f>COUNTIF(E20:E24,"&gt;=3")/COUNT(E20:E24)</f>
         <v>1</v>
@@ -7846,7 +8009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E29" s="16">
         <f>COUNTIF(E21:E25,"&gt;=3")/COUNT(E21:E25)</f>
         <v>1</v>
@@ -7863,18 +8026,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8069,18 +8232,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{840AC148-63F9-48C3-80D3-C00267635AF1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB584EA-A6A6-48A5-8DB1-B04F13FC1100}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB584EA-A6A6-48A5-8DB1-B04F13FC1100}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{840AC148-63F9-48C3-80D3-C00267635AF1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
